--- a/Circuits/bus-control.xlsx
+++ b/Circuits/bus-control.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ROM address</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>ROM Hex</t>
+  </si>
+  <si>
+    <t>Fetch instruction</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Write to instruction register</t>
+  </si>
+  <si>
+    <t>Send ALU output to bus</t>
+  </si>
+  <si>
+    <t>Write result to register file</t>
   </si>
 </sst>
 </file>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -437,7 +452,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +489,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -514,8 +532,11 @@
         <f>DEC2HEX(K2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -554,8 +575,11 @@
         <f t="shared" ref="L3:L5" si="1">DEC2HEX(K3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -594,8 +618,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -634,8 +661,11 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -660,7 +690,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -685,7 +715,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -710,7 +740,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -735,7 +765,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -760,7 +790,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -785,7 +815,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -810,7 +840,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -835,7 +865,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -860,7 +890,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -885,7 +915,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
